--- a/tracklets/train/023.xlsx
+++ b/tracklets/train/023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/as16542/OneDrive - University of Bristol/Repositories/Metric Learning Open Cows/tracklets/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AB72CA-E655-6C45-B88B-427CBD7A37E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C0DD5F-A038-4E4F-B15A-5117736A942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1769,7 +1769,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1782,6 +1782,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
